--- a/Part_III/1_Info/Howard_Testing.xlsx
+++ b/Part_III/1_Info/Howard_Testing.xlsx
@@ -5,21 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48459\Documents\GitHub\2013_Fire_Attack\Part_III\1_Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Howard_Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Testing" sheetId="1" r:id="rId1"/>
     <sheet name="Burn Days" sheetId="6" r:id="rId2"/>
-    <sheet name="Fire Test Schedule" sheetId="7" r:id="rId3"/>
-    <sheet name="Air Entrainment" sheetId="8" r:id="rId4"/>
-    <sheet name="Video" sheetId="10" r:id="rId5"/>
+    <sheet name="Air Entrainment" sheetId="8" r:id="rId3"/>
+    <sheet name="Video" sheetId="10" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="calendar" localSheetId="0">daygrid+Testing!firstdate-WEEKDAY(Testing!firstdate)-weekday_option</definedName>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="115">
   <si>
     <t>Notes</t>
   </si>
@@ -143,30 +142,6 @@
     <t>Burn 3 &amp; 4, Demo (Remove 1 layer 1/2" gypsum), Refurnish, Reinstrument</t>
   </si>
   <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Transitional, Regrow</t>
-  </si>
-  <si>
-    <t>Transitional, Window Whip, Regrow</t>
-  </si>
-  <si>
-    <t>Transitional to Interior</t>
-  </si>
-  <si>
-    <t>Interior, Straight Stream</t>
-  </si>
-  <si>
-    <t>Interior, Narrow Fog Push</t>
-  </si>
-  <si>
-    <t>Dan - Door Control</t>
-  </si>
-  <si>
     <t xml:space="preserve">Camera </t>
   </si>
   <si>
@@ -296,15 +271,6 @@
     <t>12' Narrow Fog 'O'</t>
   </si>
   <si>
-    <t>Transitional Position</t>
-  </si>
-  <si>
-    <t>Transitional Position, Nozzle Whip</t>
-  </si>
-  <si>
-    <t>Half Bale in Window</t>
-  </si>
-  <si>
     <t>Experiment 1 (hall door open, BR1 window OPEN)</t>
   </si>
   <si>
@@ -402,6 +368,33 @@
   </si>
   <si>
     <t xml:space="preserve">Completed March 7th </t>
+  </si>
+  <si>
+    <t>Straight Stream Max Angle</t>
+  </si>
+  <si>
+    <t>Straight Stream Max Angle Sweeping</t>
+  </si>
+  <si>
+    <t>Narrow Fog Whip</t>
+  </si>
+  <si>
+    <t>Smooth Bore Max Angle</t>
+  </si>
+  <si>
+    <t>Smooth Bore Max Angle Sweeping</t>
+  </si>
+  <si>
+    <t>Half Bale Whip</t>
+  </si>
+  <si>
+    <t>24' Straight Stream Fixed</t>
+  </si>
+  <si>
+    <t>48' Straight Stream Fixed</t>
+  </si>
+  <si>
+    <t>Experiment 13 (hall door OPEN, BR1 window OPEN)</t>
   </si>
 </sst>
 </file>
@@ -864,7 +857,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -937,9 +930,6 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="13" applyFont="1" applyFill="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -982,13 +972,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1358,11 +1348,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="36" t="str">
         <f>UPPER(MonthToDisplay)</f>
         <v>MARCH</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1370,11 +1360,11 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <f ca="1">YearToDisplay</f>
         <v>2017</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1386,8 +1376,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1400,8 +1390,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1684,12 +1674,12 @@
       <c r="D16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
@@ -1698,10 +1688,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1828,84 +1818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="24">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="24">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J143"/>
+  <dimension ref="A2:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1923,306 +1839,306 @@
   <sheetData>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B2" s="39"/>
       <c r="D2" s="39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E2" s="39"/>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>49</v>
+      <c r="A3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="33">
-        <v>1</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>50</v>
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
-        <v>1</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="33">
-        <v>1</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>51</v>
+      <c r="A5" s="32">
+        <v>1</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
-        <v>1</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>67</v>
+      <c r="A6" s="32">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
-        <v>1</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="33">
-        <v>1</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>68</v>
+      <c r="A7" s="32">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
-        <v>1</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="33">
-        <v>1</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>87</v>
+      <c r="A8" s="32">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>1</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>54</v>
+      <c r="A9" s="32">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>1</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="33">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>55</v>
+      <c r="A10" s="32">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
-        <v>1</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="33">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>56</v>
+      <c r="A11" s="32">
+        <v>1</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
-        <v>1</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="33">
-        <v>1</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>60</v>
+      <c r="A12" s="32">
+        <v>1</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
-        <v>1</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="33">
-        <v>1</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>88</v>
+      <c r="A13" s="32">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
-        <v>1</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>53</v>
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>1</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="33">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>57</v>
+      <c r="A15" s="32">
+        <v>1</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
-        <v>1</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="33">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>58</v>
+      <c r="A16" s="32">
+        <v>1</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
-        <v>1</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="33">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>61</v>
+      <c r="A17" s="32">
+        <v>1</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
-        <v>1</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="33">
-        <v>1</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>89</v>
+      <c r="A18" s="32">
+        <v>1</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
-        <v>1</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="33">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>50</v>
+      <c r="A19" s="32">
+        <v>1</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>16</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="33">
+      <c r="B20" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="32">
         <v>16</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>63</v>
+      <c r="E20" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -2232,7 +2148,7 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B22" s="39"/>
       <c r="D22" s="40"/>
@@ -2240,400 +2156,400 @@
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="32">
+        <v>1</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="32">
+        <v>1</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="32">
+        <v>1</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="32">
+        <v>1</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="32">
+        <v>1</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="32">
+        <v>1</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
+        <v>1</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="32">
+        <v>1</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="32">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="32">
+        <v>1</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
-        <v>1</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="32">
+        <v>1</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
-        <v>1</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="33">
-        <v>1</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="33">
-        <v>1</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
-        <v>1</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="33">
-        <v>1</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="33">
-        <v>1</v>
-      </c>
-      <c r="B30" s="33" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32">
+        <v>1</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="32">
+        <v>1</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32">
+        <v>1</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32">
+        <v>16</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="33">
-        <v>1</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
-        <v>1</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
-        <v>1</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="33">
-        <v>1</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="33">
-        <v>1</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="33">
-        <v>1</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33">
-        <v>1</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="33">
-        <v>1</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-    </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33">
-        <v>1</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33">
-        <v>16</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-    </row>
-    <row r="41" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B42" s="39"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="A43" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33">
+      <c r="A44" s="32">
         <v>2</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33">
-        <v>1</v>
-      </c>
-      <c r="B45" s="33" t="s">
+      <c r="A45" s="32">
+        <v>1</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+    </row>
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32">
+        <v>1</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32">
+        <v>1</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32">
+        <v>1</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
+        <v>1</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
+        <v>1</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+    </row>
+    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32">
+        <v>1</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32">
+        <v>2</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="32">
+        <v>1</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32">
+        <v>1</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="32">
+        <v>1</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="32">
+        <v>1</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="32">
+        <v>1</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="32">
+        <v>1</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-    </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33">
-        <v>1</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-    </row>
-    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33">
-        <v>1</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-    </row>
-    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33">
-        <v>1</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-    </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33">
-        <v>1</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-    </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33">
-        <v>1</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-    </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33">
-        <v>1</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33">
-        <v>2</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33">
-        <v>1</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-    </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>1</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-    </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33">
-        <v>1</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-    </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>1</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-    </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33">
-        <v>1</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-    </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33">
-        <v>1</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33">
-        <v>1</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="A59" s="32">
+        <v>1</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33">
-        <v>1</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="A60" s="32">
+        <v>1</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33">
+      <c r="A61" s="32">
         <v>19</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
+      <c r="B61" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62"/>
@@ -2643,570 +2559,652 @@
       <c r="E62"/>
     </row>
     <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="38"/>
+      <c r="D63" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="33">
+        <v>2</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" s="33">
+        <v>2</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="33">
+        <v>1</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="33">
+        <v>1</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33">
+        <v>1</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="33">
+        <v>1</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>1</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="33">
+        <v>1</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>1</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="33">
+        <v>1</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33">
+        <v>1</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" s="33">
+        <v>1</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="33">
+        <v>1</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" s="33">
+        <v>1</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33">
+        <v>1</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" s="33">
+        <v>1</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="33">
+        <v>1</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="33">
+        <v>1</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="33">
+        <v>1</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="33">
+        <v>1</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33">
+        <v>1</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" s="33">
+        <v>1</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="33">
+        <v>1</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" s="33">
+        <v>1</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
+        <v>1</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="33">
+        <v>1</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="33">
+        <v>1</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="33">
+        <v>1</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>1</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="33">
+        <v>1</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="33">
+        <v>1</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="33">
+        <v>1</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="33">
+        <v>17</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="33">
+        <v>17</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="38"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="38"/>
+      <c r="G83" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H83" s="38"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="33">
+        <v>2</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="33">
+        <v>2</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="33">
+        <v>2</v>
+      </c>
+      <c r="H85" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A86" s="33">
+        <v>1</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="33">
+        <v>1</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G86" s="33">
+        <v>1</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A87" s="33">
+        <v>1</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="33">
+        <v>1</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="33">
+        <v>1</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="33">
+        <v>1</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="33">
+        <v>1</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G88" s="33">
+        <v>1</v>
+      </c>
+      <c r="H88" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="33">
+        <v>1</v>
+      </c>
+      <c r="B89" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="D63" s="41" t="s">
+      <c r="D89" s="33">
+        <v>1</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G89" s="33">
+        <v>1</v>
+      </c>
+      <c r="H89" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="33">
+        <v>2</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="33">
+        <v>2</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="33">
+        <v>2</v>
+      </c>
+      <c r="H90" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="38"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="38"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="33">
+        <v>2</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="33">
+        <v>2</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="33">
+        <v>1</v>
+      </c>
+      <c r="B95" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="41"/>
-    </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64"/>
-      <c r="D64" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34">
+      <c r="C95" s="3"/>
+      <c r="D95" s="33">
+        <v>1</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="33">
+        <v>1</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="33">
+        <v>1</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="33">
+        <v>1</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="33">
+        <v>1</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="33">
+        <v>1</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="33">
+        <v>1</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="33">
         <v>2</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65"/>
-      <c r="D65" s="34">
+      <c r="B99" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="33">
         <v>2</v>
       </c>
-      <c r="E65" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="34">
-        <v>1</v>
-      </c>
-      <c r="B66" s="34" t="s">
+      <c r="E99" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="34">
-        <v>1</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34">
-        <v>1</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="34">
-        <v>1</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34">
-        <v>1</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="34">
-        <v>1</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34">
-        <v>1</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="34">
-        <v>1</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34">
-        <v>1</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70"/>
-      <c r="D70" s="34">
-        <v>1</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34">
-        <v>1</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71"/>
-      <c r="D71" s="34">
-        <v>1</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34">
-        <v>1</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72" s="34">
-        <v>1</v>
-      </c>
-      <c r="E72" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34">
-        <v>1</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="34">
-        <v>1</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="34">
-        <v>1</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="34">
-        <v>1</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="34">
-        <v>1</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75" s="34">
-        <v>1</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34">
-        <v>1</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76" s="34">
-        <v>1</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="34">
-        <v>1</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="34">
-        <v>1</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="34">
-        <v>1</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="34">
-        <v>1</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="34">
-        <v>1</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="34">
-        <v>1</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="34">
-        <v>1</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="34">
-        <v>1</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="34">
-        <v>17</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D81" s="34">
-        <v>17</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="41"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="34">
+      <c r="B101" s="38"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="38"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="33">
         <v>2</v>
       </c>
-      <c r="B85" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="34">
+      <c r="B103" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="33">
         <v>2</v>
       </c>
-      <c r="E85" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="34">
-        <v>1</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="34">
-        <v>1</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="34">
+      <c r="E103" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="33">
+        <v>1</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="33">
+        <v>1</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="33">
+        <v>1</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="33">
+        <v>1</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="33">
+        <v>1</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="33">
+        <v>1</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="33">
         <v>2</v>
       </c>
-      <c r="B87" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="34">
+      <c r="B107" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" s="33">
         <v>2</v>
       </c>
-      <c r="E87" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="34">
-        <v>5</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="34">
-        <v>5</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="41"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="34">
-        <v>2</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="34">
-        <v>2</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="34">
-        <v>1</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="34">
-        <v>1</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="34">
-        <v>2</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="34">
-        <v>2</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="34">
-        <v>5</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="34">
-        <v>5</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E97" s="41"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="34">
-        <v>2</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="34">
-        <v>2</v>
-      </c>
-      <c r="E99" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="34">
-        <v>1</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="34">
-        <v>1</v>
-      </c>
-      <c r="E100" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="34">
-        <v>2</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="34">
-        <v>2</v>
-      </c>
-      <c r="E101" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="34">
-        <v>5</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="34">
-        <v>5</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-    </row>
-    <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-    </row>
-    <row r="108" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -3227,7 +3225,7 @@
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -3255,7 +3253,7 @@
       <c r="D114"/>
       <c r="E114"/>
     </row>
-    <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -3276,7 +3274,7 @@
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -3304,16 +3302,19 @@
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J123" s="3"/>
+    </row>
+    <row r="123" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
     </row>
     <row r="124" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124"/>
@@ -3321,40 +3322,54 @@
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
-      <c r="J124"/>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J131" s="3"/>
-    </row>
-    <row r="132" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="J132"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J136" s="3"/>
-    </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="J138"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J141" s="3"/>
+    </row>
+    <row r="125" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="J136"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142"/>
@@ -3362,37 +3377,49 @@
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
-    </row>
-    <row r="143" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="J143"/>
+      <c r="J142"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="J147"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="D97:E97"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -3407,75 +3434,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="31" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
-        <v>2</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
-        <v>4</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
-        <v>5</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29">
-        <v>8</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
